--- a/379-rc---gestion-des-identifiants-métiers/ig/StructureDefinition-tddui-encounter-evenement.xlsx
+++ b/379-rc---gestion-des-identifiants-métiers/ig/StructureDefinition-tddui-encounter-evenement.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7095" uniqueCount="847">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7095" uniqueCount="848">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-21T08:17:45+00:00</t>
+    <t>2025-10-21T12:05:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1060,6 +1060,9 @@
   </si>
   <si>
     <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
+  </si>
+  <si>
+    <t>https://identifiant-medicosocial-evenement.cnsa.fr</t>
   </si>
   <si>
     <t>http://www.acme.com/identifiers/patient</t>
@@ -9106,10 +9109,10 @@
         <v>82</v>
       </c>
       <c r="S53" t="s" s="2">
-        <v>82</v>
+        <v>334</v>
       </c>
       <c r="T53" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="U53" t="s" s="2">
         <v>82</v>
@@ -9145,7 +9148,7 @@
         <v>82</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
@@ -9166,21 +9169,21 @@
         <v>82</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -9206,13 +9209,13 @@
         <v>105</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -9226,7 +9229,7 @@
         <v>82</v>
       </c>
       <c r="T54" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="U54" t="s" s="2">
         <v>82</v>
@@ -9262,7 +9265,7 @@
         <v>82</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>80</v>
@@ -9283,21 +9286,21 @@
         <v>82</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO54" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -9320,13 +9323,13 @@
         <v>92</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -9377,7 +9380,7 @@
         <v>82</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>80</v>
@@ -9398,21 +9401,21 @@
         <v>82</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO55" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -9435,16 +9438,16 @@
         <v>92</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -9494,7 +9497,7 @@
         <v>82</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>80</v>
@@ -9515,21 +9518,21 @@
         <v>82</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -9555,13 +9558,13 @@
         <v>168</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -9590,10 +9593,10 @@
         <v>230</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>82</v>
@@ -9611,7 +9614,7 @@
         <v>82</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>91</v>
@@ -9626,27 +9629,27 @@
         <v>103</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AO57" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9672,10 +9675,10 @@
         <v>105</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -9758,10 +9761,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9871,13 +9874,13 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="B60" t="s" s="2">
         <v>376</v>
       </c>
-      <c r="B60" t="s" s="2">
-        <v>375</v>
-      </c>
       <c r="C60" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D60" t="s" s="2">
         <v>82</v>
@@ -9899,13 +9902,13 @@
         <v>82</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -9971,7 +9974,7 @@
         <v>120</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>82</v>
@@ -9988,10 +9991,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -10017,10 +10020,10 @@
         <v>105</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -10071,7 +10074,7 @@
         <v>82</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>80</v>
@@ -10103,10 +10106,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -10129,16 +10132,16 @@
         <v>82</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
@@ -10188,7 +10191,7 @@
         <v>82</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>80</v>
@@ -10220,10 +10223,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -10335,10 +10338,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -10452,14 +10455,14 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
@@ -10481,10 +10484,10 @@
         <v>112</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="N65" t="s" s="2">
         <v>115</v>
@@ -10539,7 +10542,7 @@
         <v>82</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>80</v>
@@ -10571,10 +10574,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10600,10 +10603,10 @@
         <v>168</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -10633,10 +10636,10 @@
         <v>230</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>82</v>
@@ -10654,7 +10657,7 @@
         <v>82</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>91</v>
@@ -10686,10 +10689,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10712,13 +10715,13 @@
         <v>82</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -10769,7 +10772,7 @@
         <v>82</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>91</v>
@@ -10801,10 +10804,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10830,10 +10833,10 @@
         <v>146</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -10863,10 +10866,10 @@
         <v>150</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="Z68" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>82</v>
@@ -10884,7 +10887,7 @@
         <v>82</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>91</v>
@@ -10905,21 +10908,21 @@
         <v>82</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AO68" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -11031,10 +11034,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -11148,10 +11151,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -11177,16 +11180,16 @@
         <v>134</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="O71" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>82</v>
@@ -11235,7 +11238,7 @@
         <v>82</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>80</v>
@@ -11256,21 +11259,21 @@
         <v>82</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO71" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -11296,13 +11299,13 @@
         <v>105</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
@@ -11352,7 +11355,7 @@
         <v>82</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>80</v>
@@ -11373,21 +11376,21 @@
         <v>82</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO72" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -11413,14 +11416,14 @@
         <v>168</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>82</v>
@@ -11469,7 +11472,7 @@
         <v>82</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>80</v>
@@ -11490,21 +11493,21 @@
         <v>82</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO73" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11530,14 +11533,14 @@
         <v>105</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>82</v>
@@ -11586,7 +11589,7 @@
         <v>82</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>80</v>
@@ -11607,21 +11610,21 @@
         <v>82</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO74" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11644,19 +11647,19 @@
         <v>92</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="O75" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>82</v>
@@ -11705,7 +11708,7 @@
         <v>82</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>80</v>
@@ -11726,21 +11729,21 @@
         <v>82</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO75" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11763,13 +11766,13 @@
         <v>82</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>
@@ -11820,7 +11823,7 @@
         <v>82</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>80</v>
@@ -11852,10 +11855,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11967,10 +11970,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -12084,14 +12087,14 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
@@ -12113,10 +12116,10 @@
         <v>112</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="N79" t="s" s="2">
         <v>115</v>
@@ -12171,7 +12174,7 @@
         <v>82</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>80</v>
@@ -12203,10 +12206,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -12232,10 +12235,10 @@
         <v>146</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
@@ -12265,10 +12268,10 @@
         <v>150</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="Z80" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AA80" t="s" s="2">
         <v>82</v>
@@ -12286,7 +12289,7 @@
         <v>82</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>91</v>
@@ -12318,10 +12321,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -12344,13 +12347,13 @@
         <v>82</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" s="2"/>
@@ -12401,7 +12404,7 @@
         <v>82</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>91</v>
@@ -12433,10 +12436,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -12462,13 +12465,13 @@
         <v>227</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
@@ -12498,13 +12501,13 @@
       </c>
       <c r="Y82" s="2"/>
       <c r="Z82" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AA82" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AB82" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AC82" s="2"/>
       <c r="AD82" t="s" s="2">
@@ -12514,7 +12517,7 @@
         <v>118</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>80</v>
@@ -12529,30 +12532,30 @@
         <v>103</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AO82" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C83" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="D83" t="s" s="2">
         <v>82</v>
@@ -12577,13 +12580,13 @@
         <v>227</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
@@ -12612,10 +12615,10 @@
         <v>158</v>
       </c>
       <c r="Y83" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="Z83" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AA83" t="s" s="2">
         <v>82</v>
@@ -12633,7 +12636,7 @@
         <v>82</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>80</v>
@@ -12651,24 +12654,24 @@
         <v>82</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AO83" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12780,10 +12783,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12897,10 +12900,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12926,16 +12929,16 @@
         <v>146</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="O86" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="P86" t="s" s="2">
         <v>82</v>
@@ -12984,7 +12987,7 @@
         <v>82</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>80</v>
@@ -13005,21 +13008,21 @@
         <v>82</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO86" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -13131,10 +13134,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -13248,10 +13251,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -13277,16 +13280,16 @@
         <v>134</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="O89" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="P89" t="s" s="2">
         <v>82</v>
@@ -13296,7 +13299,7 @@
         <v>82</v>
       </c>
       <c r="S89" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="T89" t="s" s="2">
         <v>82</v>
@@ -13335,7 +13338,7 @@
         <v>82</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>80</v>
@@ -13356,21 +13359,21 @@
         <v>82</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AN89" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO89" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -13396,13 +13399,13 @@
         <v>105</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="O90" s="2"/>
       <c r="P90" t="s" s="2">
@@ -13452,7 +13455,7 @@
         <v>82</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>80</v>
@@ -13473,21 +13476,21 @@
         <v>82</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AN90" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO90" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -13513,14 +13516,14 @@
         <v>168</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="P91" t="s" s="2">
         <v>82</v>
@@ -13549,7 +13552,7 @@
       </c>
       <c r="Y91" s="2"/>
       <c r="Z91" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="AA91" t="s" s="2">
         <v>82</v>
@@ -13567,7 +13570,7 @@
         <v>82</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>80</v>
@@ -13588,21 +13591,21 @@
         <v>82</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AN91" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO91" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -13628,14 +13631,14 @@
         <v>105</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="P92" t="s" s="2">
         <v>82</v>
@@ -13684,7 +13687,7 @@
         <v>82</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>80</v>
@@ -13705,21 +13708,21 @@
         <v>82</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AN92" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO92" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13742,19 +13745,19 @@
         <v>92</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="O93" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="P93" t="s" s="2">
         <v>82</v>
@@ -13803,7 +13806,7 @@
         <v>82</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>80</v>
@@ -13824,21 +13827,21 @@
         <v>82</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AN93" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO93" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13864,16 +13867,16 @@
         <v>105</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="O94" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="P94" t="s" s="2">
         <v>82</v>
@@ -13922,7 +13925,7 @@
         <v>82</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>80</v>
@@ -13943,24 +13946,24 @@
         <v>82</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AN94" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO94" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C95" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="D95" t="s" s="2">
         <v>82</v>
@@ -13985,13 +13988,13 @@
         <v>227</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="O95" s="2"/>
       <c r="P95" t="s" s="2">
@@ -14020,10 +14023,10 @@
         <v>158</v>
       </c>
       <c r="Y95" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="Z95" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AA95" t="s" s="2">
         <v>82</v>
@@ -14041,7 +14044,7 @@
         <v>82</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>80</v>
@@ -14059,24 +14062,24 @@
         <v>82</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AO95" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -14188,10 +14191,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -14305,10 +14308,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -14334,16 +14337,16 @@
         <v>146</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="O98" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="P98" t="s" s="2">
         <v>82</v>
@@ -14392,7 +14395,7 @@
         <v>82</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>80</v>
@@ -14413,21 +14416,21 @@
         <v>82</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AN98" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO98" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -14539,10 +14542,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -14656,10 +14659,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -14685,16 +14688,16 @@
         <v>134</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="N101" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="O101" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="P101" t="s" s="2">
         <v>82</v>
@@ -14704,7 +14707,7 @@
         <v>82</v>
       </c>
       <c r="S101" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="T101" t="s" s="2">
         <v>82</v>
@@ -14743,7 +14746,7 @@
         <v>82</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>80</v>
@@ -14764,21 +14767,21 @@
         <v>82</v>
       </c>
       <c r="AM101" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AN101" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO101" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -14804,13 +14807,13 @@
         <v>105</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="N102" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="O102" s="2"/>
       <c r="P102" t="s" s="2">
@@ -14860,7 +14863,7 @@
         <v>82</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>80</v>
@@ -14881,21 +14884,21 @@
         <v>82</v>
       </c>
       <c r="AM102" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AN102" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO102" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -14921,14 +14924,14 @@
         <v>168</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="N103" s="2"/>
       <c r="O103" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="P103" t="s" s="2">
         <v>82</v>
@@ -14957,7 +14960,7 @@
       </c>
       <c r="Y103" s="2"/>
       <c r="Z103" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="AA103" t="s" s="2">
         <v>82</v>
@@ -14975,7 +14978,7 @@
         <v>82</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>80</v>
@@ -14996,21 +14999,21 @@
         <v>82</v>
       </c>
       <c r="AM103" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AN103" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO103" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -15036,14 +15039,14 @@
         <v>105</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="N104" s="2"/>
       <c r="O104" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="P104" t="s" s="2">
         <v>82</v>
@@ -15092,7 +15095,7 @@
         <v>82</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>80</v>
@@ -15113,21 +15116,21 @@
         <v>82</v>
       </c>
       <c r="AM104" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AN104" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO104" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -15150,19 +15153,19 @@
         <v>92</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="N105" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="O105" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="P105" t="s" s="2">
         <v>82</v>
@@ -15211,7 +15214,7 @@
         <v>82</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>80</v>
@@ -15232,21 +15235,21 @@
         <v>82</v>
       </c>
       <c r="AM105" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AN105" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO105" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -15272,16 +15275,16 @@
         <v>105</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="N106" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="O106" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="P106" t="s" s="2">
         <v>82</v>
@@ -15330,7 +15333,7 @@
         <v>82</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>80</v>
@@ -15351,24 +15354,24 @@
         <v>82</v>
       </c>
       <c r="AM106" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AN106" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO106" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C107" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="D107" t="s" s="2">
         <v>82</v>
@@ -15393,13 +15396,13 @@
         <v>227</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="N107" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="O107" s="2"/>
       <c r="P107" t="s" s="2">
@@ -15428,10 +15431,10 @@
         <v>158</v>
       </c>
       <c r="Y107" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="Z107" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AA107" t="s" s="2">
         <v>82</v>
@@ -15449,7 +15452,7 @@
         <v>82</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>80</v>
@@ -15467,24 +15470,24 @@
         <v>82</v>
       </c>
       <c r="AL107" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AM107" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AN107" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AO107" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -15596,10 +15599,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -15713,10 +15716,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -15742,16 +15745,16 @@
         <v>146</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="N110" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="O110" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="P110" t="s" s="2">
         <v>82</v>
@@ -15800,7 +15803,7 @@
         <v>82</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>80</v>
@@ -15821,21 +15824,21 @@
         <v>82</v>
       </c>
       <c r="AM110" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AN110" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO110" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -15947,10 +15950,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -16064,10 +16067,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -16093,16 +16096,16 @@
         <v>134</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="N113" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="O113" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="P113" t="s" s="2">
         <v>82</v>
@@ -16112,7 +16115,7 @@
         <v>82</v>
       </c>
       <c r="S113" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="T113" t="s" s="2">
         <v>82</v>
@@ -16151,7 +16154,7 @@
         <v>82</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>80</v>
@@ -16172,21 +16175,21 @@
         <v>82</v>
       </c>
       <c r="AM113" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AN113" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO113" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -16212,13 +16215,13 @@
         <v>105</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="N114" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="O114" s="2"/>
       <c r="P114" t="s" s="2">
@@ -16268,7 +16271,7 @@
         <v>82</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>80</v>
@@ -16289,21 +16292,21 @@
         <v>82</v>
       </c>
       <c r="AM114" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AN114" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO114" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -16329,14 +16332,14 @@
         <v>168</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="N115" s="2"/>
       <c r="O115" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="P115" t="s" s="2">
         <v>82</v>
@@ -16346,7 +16349,7 @@
         <v>82</v>
       </c>
       <c r="S115" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="T115" t="s" s="2">
         <v>82</v>
@@ -16385,7 +16388,7 @@
         <v>82</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>80</v>
@@ -16406,21 +16409,21 @@
         <v>82</v>
       </c>
       <c r="AM115" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AN115" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO115" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
@@ -16446,14 +16449,14 @@
         <v>105</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="N116" s="2"/>
       <c r="O116" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="P116" t="s" s="2">
         <v>82</v>
@@ -16463,7 +16466,7 @@
         <v>82</v>
       </c>
       <c r="S116" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="T116" t="s" s="2">
         <v>82</v>
@@ -16502,7 +16505,7 @@
         <v>82</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AG116" t="s" s="2">
         <v>80</v>
@@ -16523,21 +16526,21 @@
         <v>82</v>
       </c>
       <c r="AM116" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AN116" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO116" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -16560,19 +16563,19 @@
         <v>92</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="N117" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="O117" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="P117" t="s" s="2">
         <v>82</v>
@@ -16621,7 +16624,7 @@
         <v>82</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>80</v>
@@ -16642,21 +16645,21 @@
         <v>82</v>
       </c>
       <c r="AM117" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AN117" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO117" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
@@ -16682,16 +16685,16 @@
         <v>105</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="N118" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="O118" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="P118" t="s" s="2">
         <v>82</v>
@@ -16740,7 +16743,7 @@
         <v>82</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>80</v>
@@ -16761,21 +16764,21 @@
         <v>82</v>
       </c>
       <c r="AM118" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AN118" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO118" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -16801,10 +16804,10 @@
         <v>227</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="N119" s="2"/>
       <c r="O119" s="2"/>
@@ -16834,10 +16837,10 @@
         <v>158</v>
       </c>
       <c r="Y119" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="Z119" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="AA119" t="s" s="2">
         <v>82</v>
@@ -16855,7 +16858,7 @@
         <v>82</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="AG119" t="s" s="2">
         <v>80</v>
@@ -16873,7 +16876,7 @@
         <v>82</v>
       </c>
       <c r="AL119" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AM119" t="s" s="2">
         <v>109</v>
@@ -16882,15 +16885,15 @@
         <v>82</v>
       </c>
       <c r="AO119" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -16916,10 +16919,10 @@
         <v>227</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="N120" s="2"/>
       <c r="O120" s="2"/>
@@ -16949,10 +16952,10 @@
         <v>158</v>
       </c>
       <c r="Y120" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="Z120" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="AA120" t="s" s="2">
         <v>82</v>
@@ -16970,7 +16973,7 @@
         <v>82</v>
       </c>
       <c r="AF120" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="AG120" t="s" s="2">
         <v>80</v>
@@ -16991,25 +16994,25 @@
         <v>82</v>
       </c>
       <c r="AM120" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="AN120" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="AO120" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="E121" s="2"/>
       <c r="F121" t="s" s="2">
@@ -17028,16 +17031,16 @@
         <v>92</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="N121" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="O121" s="2"/>
       <c r="P121" t="s" s="2">
@@ -17087,7 +17090,7 @@
         <v>82</v>
       </c>
       <c r="AF121" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="AG121" t="s" s="2">
         <v>80</v>
@@ -17102,27 +17105,27 @@
         <v>103</v>
       </c>
       <c r="AK121" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="AL121" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="AM121" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="AN121" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="AO121" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
@@ -17145,13 +17148,13 @@
         <v>92</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="N122" s="2"/>
       <c r="O122" s="2"/>
@@ -17202,7 +17205,7 @@
         <v>82</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>80</v>
@@ -17220,28 +17223,28 @@
         <v>82</v>
       </c>
       <c r="AL122" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="AM122" t="s" s="2">
         <v>109</v>
       </c>
       <c r="AN122" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="AO122" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="E123" s="2"/>
       <c r="F123" t="s" s="2">
@@ -17260,13 +17263,13 @@
         <v>82</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="N123" s="2"/>
       <c r="O123" s="2"/>
@@ -17317,7 +17320,7 @@
         <v>82</v>
       </c>
       <c r="AF123" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="AG123" t="s" s="2">
         <v>80</v>
@@ -17335,10 +17338,10 @@
         <v>82</v>
       </c>
       <c r="AL123" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="AM123" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="AN123" t="s" s="2">
         <v>82</v>
@@ -17349,10 +17352,10 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
@@ -17375,13 +17378,13 @@
         <v>92</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="N124" s="2"/>
       <c r="O124" s="2"/>
@@ -17420,7 +17423,7 @@
         <v>82</v>
       </c>
       <c r="AB124" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="AC124" s="2"/>
       <c r="AD124" t="s" s="2">
@@ -17430,7 +17433,7 @@
         <v>118</v>
       </c>
       <c r="AF124" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="AG124" t="s" s="2">
         <v>80</v>
@@ -17448,24 +17451,24 @@
         <v>82</v>
       </c>
       <c r="AL124" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="AM124" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="AN124" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO124" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
@@ -17577,10 +17580,10 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
@@ -17694,14 +17697,14 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="E127" s="2"/>
       <c r="F127" t="s" s="2">
@@ -17723,10 +17726,10 @@
         <v>112</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="M127" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="N127" t="s" s="2">
         <v>115</v>
@@ -17781,7 +17784,7 @@
         <v>82</v>
       </c>
       <c r="AF127" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AG127" t="s" s="2">
         <v>80</v>
@@ -17813,10 +17816,10 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" t="s" s="2">
@@ -17842,13 +17845,13 @@
         <v>227</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="N128" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="O128" s="2"/>
       <c r="P128" t="s" s="2">
@@ -17877,10 +17880,10 @@
         <v>150</v>
       </c>
       <c r="Y128" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="Z128" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="AA128" t="s" s="2">
         <v>82</v>
@@ -17898,7 +17901,7 @@
         <v>82</v>
       </c>
       <c r="AF128" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="AG128" t="s" s="2">
         <v>80</v>
@@ -17916,24 +17919,24 @@
         <v>82</v>
       </c>
       <c r="AL128" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="AM128" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="AN128" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO128" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" t="s" s="2">
@@ -17956,13 +17959,13 @@
         <v>82</v>
       </c>
       <c r="K129" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="M129" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="N129" s="2"/>
       <c r="O129" s="2"/>
@@ -18013,7 +18016,7 @@
         <v>82</v>
       </c>
       <c r="AF129" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="AG129" t="s" s="2">
         <v>80</v>
@@ -18034,21 +18037,21 @@
         <v>82</v>
       </c>
       <c r="AM129" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="AN129" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO129" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" t="s" s="2">
@@ -18071,13 +18074,13 @@
         <v>92</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="M130" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="N130" s="2"/>
       <c r="O130" s="2"/>
@@ -18128,7 +18131,7 @@
         <v>82</v>
       </c>
       <c r="AF130" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="AG130" t="s" s="2">
         <v>80</v>
@@ -18146,27 +18149,27 @@
         <v>82</v>
       </c>
       <c r="AL130" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="AM130" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="AN130" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="AO130" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="C131" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="D131" t="s" s="2">
         <v>82</v>
@@ -18188,13 +18191,13 @@
         <v>92</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="N131" s="2"/>
       <c r="O131" s="2"/>
@@ -18245,7 +18248,7 @@
         <v>82</v>
       </c>
       <c r="AF131" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="AG131" t="s" s="2">
         <v>80</v>
@@ -18260,27 +18263,27 @@
         <v>103</v>
       </c>
       <c r="AK131" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="AL131" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="AM131" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="AN131" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO131" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" t="s" s="2">
@@ -18392,10 +18395,10 @@
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" t="s" s="2">
@@ -18509,14 +18512,14 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="E134" s="2"/>
       <c r="F134" t="s" s="2">
@@ -18538,10 +18541,10 @@
         <v>112</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="M134" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="N134" t="s" s="2">
         <v>115</v>
@@ -18596,7 +18599,7 @@
         <v>82</v>
       </c>
       <c r="AF134" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AG134" t="s" s="2">
         <v>80</v>
@@ -18628,10 +18631,10 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" t="s" s="2">
@@ -18657,13 +18660,13 @@
         <v>227</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="N135" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="O135" s="2"/>
       <c r="P135" t="s" s="2">
@@ -18674,7 +18677,7 @@
         <v>82</v>
       </c>
       <c r="S135" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="T135" t="s" s="2">
         <v>82</v>
@@ -18692,10 +18695,10 @@
         <v>150</v>
       </c>
       <c r="Y135" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="Z135" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="AA135" t="s" s="2">
         <v>82</v>
@@ -18713,7 +18716,7 @@
         <v>82</v>
       </c>
       <c r="AF135" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="AG135" t="s" s="2">
         <v>80</v>
@@ -18731,24 +18734,24 @@
         <v>82</v>
       </c>
       <c r="AL135" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="AM135" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="AN135" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO135" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" t="s" s="2">
@@ -18771,13 +18774,13 @@
         <v>82</v>
       </c>
       <c r="K136" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="M136" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="N136" s="2"/>
       <c r="O136" s="2"/>
@@ -18828,7 +18831,7 @@
         <v>82</v>
       </c>
       <c r="AF136" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="AG136" t="s" s="2">
         <v>80</v>
@@ -18849,21 +18852,21 @@
         <v>82</v>
       </c>
       <c r="AM136" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="AN136" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO136" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" t="s" s="2">
@@ -18886,13 +18889,13 @@
         <v>92</v>
       </c>
       <c r="K137" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="M137" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="N137" s="2"/>
       <c r="O137" s="2"/>
@@ -18943,7 +18946,7 @@
         <v>82</v>
       </c>
       <c r="AF137" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="AG137" t="s" s="2">
         <v>80</v>
@@ -18961,27 +18964,27 @@
         <v>82</v>
       </c>
       <c r="AL137" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="AM137" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="AN137" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="AO137" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="C138" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="D138" t="s" s="2">
         <v>82</v>
@@ -19003,13 +19006,13 @@
         <v>92</v>
       </c>
       <c r="K138" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="N138" s="2"/>
       <c r="O138" s="2"/>
@@ -19060,7 +19063,7 @@
         <v>82</v>
       </c>
       <c r="AF138" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="AG138" t="s" s="2">
         <v>80</v>
@@ -19075,27 +19078,27 @@
         <v>103</v>
       </c>
       <c r="AK138" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="AL138" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="AM138" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="AN138" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO138" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" t="s" s="2">
@@ -19207,10 +19210,10 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" t="s" s="2">
@@ -19324,14 +19327,14 @@
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="E141" s="2"/>
       <c r="F141" t="s" s="2">
@@ -19353,10 +19356,10 @@
         <v>112</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="M141" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="N141" t="s" s="2">
         <v>115</v>
@@ -19411,7 +19414,7 @@
         <v>82</v>
       </c>
       <c r="AF141" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AG141" t="s" s="2">
         <v>80</v>
@@ -19443,10 +19446,10 @@
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" t="s" s="2">
@@ -19472,13 +19475,13 @@
         <v>227</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="M142" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="N142" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="O142" s="2"/>
       <c r="P142" t="s" s="2">
@@ -19489,7 +19492,7 @@
         <v>82</v>
       </c>
       <c r="S142" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="T142" t="s" s="2">
         <v>82</v>
@@ -19507,10 +19510,10 @@
         <v>150</v>
       </c>
       <c r="Y142" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="Z142" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="AA142" t="s" s="2">
         <v>82</v>
@@ -19528,7 +19531,7 @@
         <v>82</v>
       </c>
       <c r="AF142" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="AG142" t="s" s="2">
         <v>80</v>
@@ -19546,24 +19549,24 @@
         <v>82</v>
       </c>
       <c r="AL142" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="AM142" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="AN142" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO142" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="C143" s="2"/>
       <c r="D143" t="s" s="2">
@@ -19586,13 +19589,13 @@
         <v>82</v>
       </c>
       <c r="K143" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="M143" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="N143" s="2"/>
       <c r="O143" s="2"/>
@@ -19643,7 +19646,7 @@
         <v>82</v>
       </c>
       <c r="AF143" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="AG143" t="s" s="2">
         <v>80</v>
@@ -19664,21 +19667,21 @@
         <v>82</v>
       </c>
       <c r="AM143" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="AN143" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO143" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" t="s" s="2">
@@ -19701,13 +19704,13 @@
         <v>92</v>
       </c>
       <c r="K144" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="M144" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="N144" s="2"/>
       <c r="O144" s="2"/>
@@ -19758,7 +19761,7 @@
         <v>82</v>
       </c>
       <c r="AF144" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="AG144" t="s" s="2">
         <v>80</v>
@@ -19776,24 +19779,24 @@
         <v>82</v>
       </c>
       <c r="AL144" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="AM144" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="AN144" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="AO144" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" t="s" s="2">
@@ -19816,13 +19819,13 @@
         <v>92</v>
       </c>
       <c r="K145" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="M145" t="s" s="2">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="N145" s="2"/>
       <c r="O145" s="2"/>
@@ -19873,7 +19876,7 @@
         <v>82</v>
       </c>
       <c r="AF145" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="AG145" t="s" s="2">
         <v>80</v>
@@ -19891,24 +19894,24 @@
         <v>82</v>
       </c>
       <c r="AL145" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="AM145" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="AN145" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO145" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" t="s" s="2">
@@ -19931,16 +19934,16 @@
         <v>82</v>
       </c>
       <c r="K146" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="M146" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="N146" t="s" s="2">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="O146" s="2"/>
       <c r="P146" t="s" s="2">
@@ -19990,7 +19993,7 @@
         <v>82</v>
       </c>
       <c r="AF146" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="AG146" t="s" s="2">
         <v>80</v>
@@ -20008,24 +20011,24 @@
         <v>82</v>
       </c>
       <c r="AL146" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="AM146" t="s" s="2">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="AN146" t="s" s="2">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="AO146" t="s" s="2">
-        <v>652</v>
+        <v>653</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="C147" s="2"/>
       <c r="D147" t="s" s="2">
@@ -20137,10 +20140,10 @@
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="C148" s="2"/>
       <c r="D148" t="s" s="2">
@@ -20254,10 +20257,10 @@
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="C149" s="2"/>
       <c r="D149" t="s" s="2">
@@ -20280,16 +20283,16 @@
         <v>92</v>
       </c>
       <c r="K149" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="L149" t="s" s="2">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="M149" t="s" s="2">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="N149" t="s" s="2">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="O149" s="2"/>
       <c r="P149" t="s" s="2">
@@ -20339,7 +20342,7 @@
         <v>82</v>
       </c>
       <c r="AF149" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="AG149" t="s" s="2">
         <v>80</v>
@@ -20348,33 +20351,33 @@
         <v>91</v>
       </c>
       <c r="AI149" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="AJ149" t="s" s="2">
         <v>103</v>
       </c>
       <c r="AK149" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="AL149" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM149" t="s" s="2">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="AN149" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO149" t="s" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" t="s" s="2">
@@ -20397,23 +20400,23 @@
         <v>92</v>
       </c>
       <c r="K150" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="L150" t="s" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="M150" t="s" s="2">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="N150" t="s" s="2">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="O150" s="2"/>
       <c r="P150" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q150" t="s" s="2">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="R150" t="s" s="2">
         <v>82</v>
@@ -20458,7 +20461,7 @@
         <v>82</v>
       </c>
       <c r="AF150" t="s" s="2">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="AG150" t="s" s="2">
         <v>80</v>
@@ -20467,33 +20470,33 @@
         <v>91</v>
       </c>
       <c r="AI150" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="AJ150" t="s" s="2">
         <v>103</v>
       </c>
       <c r="AK150" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="AL150" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM150" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="AN150" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO150" t="s" s="2">
-        <v>673</v>
+        <v>674</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="C151" s="2"/>
       <c r="D151" t="s" s="2">
@@ -20516,16 +20519,16 @@
         <v>82</v>
       </c>
       <c r="K151" t="s" s="2">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="M151" t="s" s="2">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="N151" t="s" s="2">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="O151" s="2"/>
       <c r="P151" t="s" s="2">
@@ -20575,7 +20578,7 @@
         <v>82</v>
       </c>
       <c r="AF151" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="AG151" t="s" s="2">
         <v>80</v>
@@ -20593,28 +20596,28 @@
         <v>82</v>
       </c>
       <c r="AL151" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="AM151" t="s" s="2">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="AN151" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO151" t="s" s="2">
-        <v>680</v>
+        <v>681</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" t="s" s="2">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="E152" s="2"/>
       <c r="F152" t="s" s="2">
@@ -20636,13 +20639,13 @@
         <v>227</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="M152" t="s" s="2">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="N152" t="s" s="2">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="O152" s="2"/>
       <c r="P152" t="s" s="2">
@@ -20671,10 +20674,10 @@
         <v>172</v>
       </c>
       <c r="Y152" t="s" s="2">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="Z152" t="s" s="2">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="AA152" t="s" s="2">
         <v>82</v>
@@ -20692,7 +20695,7 @@
         <v>82</v>
       </c>
       <c r="AF152" t="s" s="2">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="AG152" t="s" s="2">
         <v>80</v>
@@ -20710,28 +20713,28 @@
         <v>82</v>
       </c>
       <c r="AL152" t="s" s="2">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="AM152" t="s" s="2">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="AN152" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="AO152" t="s" s="2">
-        <v>691</v>
+        <v>692</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="C153" s="2"/>
       <c r="D153" t="s" s="2">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="E153" s="2"/>
       <c r="F153" t="s" s="2">
@@ -20750,16 +20753,16 @@
         <v>92</v>
       </c>
       <c r="K153" t="s" s="2">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="M153" t="s" s="2">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="N153" t="s" s="2">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="O153" s="2"/>
       <c r="P153" t="s" s="2">
@@ -20809,7 +20812,7 @@
         <v>82</v>
       </c>
       <c r="AF153" t="s" s="2">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="AG153" t="s" s="2">
         <v>80</v>
@@ -20827,24 +20830,24 @@
         <v>82</v>
       </c>
       <c r="AL153" t="s" s="2">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="AM153" t="s" s="2">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="AN153" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="AO153" t="s" s="2">
-        <v>691</v>
+        <v>692</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" t="s" s="2">
@@ -20867,13 +20870,13 @@
         <v>92</v>
       </c>
       <c r="K154" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="M154" t="s" s="2">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="N154" s="2"/>
       <c r="O154" s="2"/>
@@ -20924,7 +20927,7 @@
         <v>82</v>
       </c>
       <c r="AF154" t="s" s="2">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="AG154" t="s" s="2">
         <v>80</v>
@@ -20945,7 +20948,7 @@
         <v>82</v>
       </c>
       <c r="AM154" t="s" s="2">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="AN154" t="s" s="2">
         <v>82</v>
@@ -20956,10 +20959,10 @@
     </row>
     <row r="155">
       <c r="A155" t="s" s="2">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" t="s" s="2">
@@ -21071,10 +21074,10 @@
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" t="s" s="2">
@@ -21188,14 +21191,14 @@
     </row>
     <row r="157">
       <c r="A157" t="s" s="2">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="C157" s="2"/>
       <c r="D157" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="E157" s="2"/>
       <c r="F157" t="s" s="2">
@@ -21217,10 +21220,10 @@
         <v>112</v>
       </c>
       <c r="L157" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="M157" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="N157" t="s" s="2">
         <v>115</v>
@@ -21275,7 +21278,7 @@
         <v>82</v>
       </c>
       <c r="AF157" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AG157" t="s" s="2">
         <v>80</v>
@@ -21307,14 +21310,14 @@
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="C158" s="2"/>
       <c r="D158" t="s" s="2">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="E158" s="2"/>
       <c r="F158" t="s" s="2">
@@ -21333,16 +21336,16 @@
         <v>92</v>
       </c>
       <c r="K158" t="s" s="2">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="L158" t="s" s="2">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="M158" t="s" s="2">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="N158" t="s" s="2">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="O158" s="2"/>
       <c r="P158" t="s" s="2">
@@ -21392,7 +21395,7 @@
         <v>82</v>
       </c>
       <c r="AF158" t="s" s="2">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="AG158" t="s" s="2">
         <v>91</v>
@@ -21410,24 +21413,24 @@
         <v>82</v>
       </c>
       <c r="AL158" t="s" s="2">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="AM158" t="s" s="2">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="AN158" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="AO158" t="s" s="2">
-        <v>709</v>
+        <v>710</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="C159" s="2"/>
       <c r="D159" t="s" s="2">
@@ -21453,10 +21456,10 @@
         <v>227</v>
       </c>
       <c r="L159" t="s" s="2">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="M159" t="s" s="2">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="N159" s="2"/>
       <c r="O159" s="2"/>
@@ -21486,10 +21489,10 @@
         <v>172</v>
       </c>
       <c r="Y159" t="s" s="2">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="Z159" t="s" s="2">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="AA159" t="s" s="2">
         <v>82</v>
@@ -21507,7 +21510,7 @@
         <v>82</v>
       </c>
       <c r="AF159" t="s" s="2">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="AG159" t="s" s="2">
         <v>80</v>
@@ -21539,10 +21542,10 @@
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" t="s" s="2">
@@ -21565,13 +21568,13 @@
         <v>82</v>
       </c>
       <c r="K160" t="s" s="2">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="L160" t="s" s="2">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="M160" t="s" s="2">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="N160" s="2"/>
       <c r="O160" s="2"/>
@@ -21622,7 +21625,7 @@
         <v>82</v>
       </c>
       <c r="AF160" t="s" s="2">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="AG160" t="s" s="2">
         <v>80</v>
@@ -21643,7 +21646,7 @@
         <v>82</v>
       </c>
       <c r="AM160" t="s" s="2">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="AN160" t="s" s="2">
         <v>82</v>
@@ -21654,10 +21657,10 @@
     </row>
     <row r="161">
       <c r="A161" t="s" s="2">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="C161" s="2"/>
       <c r="D161" t="s" s="2">
@@ -21680,16 +21683,16 @@
         <v>82</v>
       </c>
       <c r="K161" t="s" s="2">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="L161" t="s" s="2">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="M161" t="s" s="2">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="N161" t="s" s="2">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="O161" s="2"/>
       <c r="P161" t="s" s="2">
@@ -21739,7 +21742,7 @@
         <v>82</v>
       </c>
       <c r="AF161" t="s" s="2">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="AG161" t="s" s="2">
         <v>80</v>
@@ -21760,7 +21763,7 @@
         <v>82</v>
       </c>
       <c r="AM161" t="s" s="2">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="AN161" t="s" s="2">
         <v>82</v>
@@ -21771,10 +21774,10 @@
     </row>
     <row r="162">
       <c r="A162" t="s" s="2">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="B162" t="s" s="2">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="C162" s="2"/>
       <c r="D162" t="s" s="2">
@@ -21797,16 +21800,16 @@
         <v>82</v>
       </c>
       <c r="K162" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="L162" t="s" s="2">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="M162" t="s" s="2">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="N162" t="s" s="2">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="O162" s="2"/>
       <c r="P162" t="s" s="2">
@@ -21856,7 +21859,7 @@
         <v>82</v>
       </c>
       <c r="AF162" t="s" s="2">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="AG162" t="s" s="2">
         <v>80</v>
@@ -21877,7 +21880,7 @@
         <v>82</v>
       </c>
       <c r="AM162" t="s" s="2">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="AN162" t="s" s="2">
         <v>82</v>
@@ -21888,10 +21891,10 @@
     </row>
     <row r="163">
       <c r="A163" t="s" s="2">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="B163" t="s" s="2">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="C163" s="2"/>
       <c r="D163" t="s" s="2">
@@ -22003,10 +22006,10 @@
     </row>
     <row r="164">
       <c r="A164" t="s" s="2">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="C164" s="2"/>
       <c r="D164" t="s" s="2">
@@ -22120,14 +22123,14 @@
     </row>
     <row r="165">
       <c r="A165" t="s" s="2">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="C165" s="2"/>
       <c r="D165" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="E165" s="2"/>
       <c r="F165" t="s" s="2">
@@ -22149,10 +22152,10 @@
         <v>112</v>
       </c>
       <c r="L165" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="M165" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="N165" t="s" s="2">
         <v>115</v>
@@ -22207,7 +22210,7 @@
         <v>82</v>
       </c>
       <c r="AF165" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AG165" t="s" s="2">
         <v>80</v>
@@ -22239,10 +22242,10 @@
     </row>
     <row r="166">
       <c r="A166" t="s" s="2">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="C166" s="2"/>
       <c r="D166" t="s" s="2">
@@ -22268,10 +22271,10 @@
         <v>302</v>
       </c>
       <c r="L166" t="s" s="2">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="M166" t="s" s="2">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="N166" s="2"/>
       <c r="O166" s="2"/>
@@ -22322,7 +22325,7 @@
         <v>82</v>
       </c>
       <c r="AF166" t="s" s="2">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="AG166" t="s" s="2">
         <v>80</v>
@@ -22349,15 +22352,15 @@
         <v>82</v>
       </c>
       <c r="AO166" t="s" s="2">
-        <v>737</v>
+        <v>738</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s" s="2">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="B167" t="s" s="2">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="C167" s="2"/>
       <c r="D167" t="s" s="2">
@@ -22469,10 +22472,10 @@
     </row>
     <row r="168">
       <c r="A168" t="s" s="2">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="B168" t="s" s="2">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="C168" s="2"/>
       <c r="D168" t="s" s="2">
@@ -22586,10 +22589,10 @@
     </row>
     <row r="169">
       <c r="A169" t="s" s="2">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="B169" t="s" s="2">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="C169" s="2"/>
       <c r="D169" t="s" s="2">
@@ -22705,10 +22708,10 @@
     </row>
     <row r="170">
       <c r="A170" t="s" s="2">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="B170" t="s" s="2">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="C170" s="2"/>
       <c r="D170" t="s" s="2">
@@ -22737,7 +22740,7 @@
         <v>322</v>
       </c>
       <c r="M170" t="s" s="2">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="N170" t="s" s="2">
         <v>324</v>
@@ -22822,10 +22825,10 @@
     </row>
     <row r="171">
       <c r="A171" t="s" s="2">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="B171" t="s" s="2">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C171" s="2"/>
       <c r="D171" t="s" s="2">
@@ -22854,7 +22857,7 @@
         <v>330</v>
       </c>
       <c r="M171" t="s" s="2">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="N171" t="s" s="2">
         <v>332</v>
@@ -22867,13 +22870,13 @@
       </c>
       <c r="Q171" s="2"/>
       <c r="R171" t="s" s="2">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="S171" t="s" s="2">
         <v>82</v>
       </c>
       <c r="T171" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="U171" t="s" s="2">
         <v>82</v>
@@ -22909,7 +22912,7 @@
         <v>82</v>
       </c>
       <c r="AF171" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AG171" t="s" s="2">
         <v>80</v>
@@ -22930,21 +22933,21 @@
         <v>82</v>
       </c>
       <c r="AM171" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AN171" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO171" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s" s="2">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="B172" t="s" s="2">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="C172" s="2"/>
       <c r="D172" t="s" s="2">
@@ -22970,13 +22973,13 @@
         <v>105</v>
       </c>
       <c r="L172" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="M172" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="N172" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="O172" s="2"/>
       <c r="P172" t="s" s="2">
@@ -22990,7 +22993,7 @@
         <v>82</v>
       </c>
       <c r="T172" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="U172" t="s" s="2">
         <v>82</v>
@@ -23026,7 +23029,7 @@
         <v>82</v>
       </c>
       <c r="AF172" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AG172" t="s" s="2">
         <v>80</v>
@@ -23047,21 +23050,21 @@
         <v>82</v>
       </c>
       <c r="AM172" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AN172" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO172" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s" s="2">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="B173" t="s" s="2">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="C173" s="2"/>
       <c r="D173" t="s" s="2">
@@ -23084,13 +23087,13 @@
         <v>92</v>
       </c>
       <c r="K173" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="L173" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="M173" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="N173" s="2"/>
       <c r="O173" s="2"/>
@@ -23141,7 +23144,7 @@
         <v>82</v>
       </c>
       <c r="AF173" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AG173" t="s" s="2">
         <v>80</v>
@@ -23162,21 +23165,21 @@
         <v>82</v>
       </c>
       <c r="AM173" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AN173" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO173" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s" s="2">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="B174" t="s" s="2">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="C174" s="2"/>
       <c r="D174" t="s" s="2">
@@ -23199,16 +23202,16 @@
         <v>92</v>
       </c>
       <c r="K174" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="L174" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="M174" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="N174" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="O174" s="2"/>
       <c r="P174" t="s" s="2">
@@ -23258,7 +23261,7 @@
         <v>82</v>
       </c>
       <c r="AF174" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AG174" t="s" s="2">
         <v>80</v>
@@ -23279,21 +23282,21 @@
         <v>82</v>
       </c>
       <c r="AM174" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AN174" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO174" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s" s="2">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B175" t="s" s="2">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="C175" s="2"/>
       <c r="D175" t="s" s="2">
@@ -23316,13 +23319,13 @@
         <v>82</v>
       </c>
       <c r="K175" t="s" s="2">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="L175" t="s" s="2">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="M175" t="s" s="2">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="N175" s="2"/>
       <c r="O175" s="2"/>
@@ -23373,7 +23376,7 @@
         <v>82</v>
       </c>
       <c r="AF175" t="s" s="2">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="AG175" t="s" s="2">
         <v>80</v>
@@ -23394,7 +23397,7 @@
         <v>82</v>
       </c>
       <c r="AM175" t="s" s="2">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="AN175" t="s" s="2">
         <v>82</v>
@@ -23405,10 +23408,10 @@
     </row>
     <row r="176">
       <c r="A176" t="s" s="2">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="B176" t="s" s="2">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="C176" s="2"/>
       <c r="D176" t="s" s="2">
@@ -23434,10 +23437,10 @@
         <v>227</v>
       </c>
       <c r="L176" t="s" s="2">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="M176" t="s" s="2">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="N176" s="2"/>
       <c r="O176" s="2"/>
@@ -23467,10 +23470,10 @@
         <v>172</v>
       </c>
       <c r="Y176" t="s" s="2">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="Z176" t="s" s="2">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="AA176" t="s" s="2">
         <v>82</v>
@@ -23488,7 +23491,7 @@
         <v>82</v>
       </c>
       <c r="AF176" t="s" s="2">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="AG176" t="s" s="2">
         <v>80</v>
@@ -23509,21 +23512,21 @@
         <v>82</v>
       </c>
       <c r="AM176" t="s" s="2">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="AN176" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO176" t="s" s="2">
-        <v>760</v>
+        <v>761</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s" s="2">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="B177" t="s" s="2">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="C177" s="2"/>
       <c r="D177" t="s" s="2">
@@ -23549,10 +23552,10 @@
         <v>227</v>
       </c>
       <c r="L177" t="s" s="2">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="M177" t="s" s="2">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="N177" s="2"/>
       <c r="O177" s="2"/>
@@ -23582,10 +23585,10 @@
         <v>158</v>
       </c>
       <c r="Y177" t="s" s="2">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="Z177" t="s" s="2">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="AA177" t="s" s="2">
         <v>82</v>
@@ -23603,7 +23606,7 @@
         <v>82</v>
       </c>
       <c r="AF177" t="s" s="2">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="AG177" t="s" s="2">
         <v>80</v>
@@ -23630,15 +23633,15 @@
         <v>82</v>
       </c>
       <c r="AO177" t="s" s="2">
-        <v>766</v>
+        <v>767</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s" s="2">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="B178" t="s" s="2">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="C178" s="2"/>
       <c r="D178" t="s" s="2">
@@ -23664,16 +23667,16 @@
         <v>227</v>
       </c>
       <c r="L178" t="s" s="2">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="M178" t="s" s="2">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="N178" t="s" s="2">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="O178" t="s" s="2">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="P178" t="s" s="2">
         <v>82</v>
@@ -23701,10 +23704,10 @@
         <v>158</v>
       </c>
       <c r="Y178" t="s" s="2">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="Z178" t="s" s="2">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="AA178" t="s" s="2">
         <v>82</v>
@@ -23722,7 +23725,7 @@
         <v>82</v>
       </c>
       <c r="AF178" t="s" s="2">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="AG178" t="s" s="2">
         <v>80</v>
@@ -23743,21 +23746,21 @@
         <v>82</v>
       </c>
       <c r="AM178" t="s" s="2">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="AN178" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO178" t="s" s="2">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s" s="2">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="B179" t="s" s="2">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="C179" s="2"/>
       <c r="D179" t="s" s="2">
@@ -23783,10 +23786,10 @@
         <v>227</v>
       </c>
       <c r="L179" t="s" s="2">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="M179" t="s" s="2">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="N179" s="2"/>
       <c r="O179" s="2"/>
@@ -23816,10 +23819,10 @@
         <v>172</v>
       </c>
       <c r="Y179" t="s" s="2">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="Z179" t="s" s="2">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="AA179" t="s" s="2">
         <v>82</v>
@@ -23837,7 +23840,7 @@
         <v>82</v>
       </c>
       <c r="AF179" t="s" s="2">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="AG179" t="s" s="2">
         <v>80</v>
@@ -23858,21 +23861,21 @@
         <v>82</v>
       </c>
       <c r="AM179" t="s" s="2">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="AN179" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO179" t="s" s="2">
-        <v>782</v>
+        <v>783</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s" s="2">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="B180" t="s" s="2">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="C180" s="2"/>
       <c r="D180" t="s" s="2">
@@ -23898,10 +23901,10 @@
         <v>227</v>
       </c>
       <c r="L180" t="s" s="2">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="M180" t="s" s="2">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="N180" s="2"/>
       <c r="O180" s="2"/>
@@ -23931,10 +23934,10 @@
         <v>172</v>
       </c>
       <c r="Y180" t="s" s="2">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="Z180" t="s" s="2">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="AA180" t="s" s="2">
         <v>82</v>
@@ -23952,7 +23955,7 @@
         <v>82</v>
       </c>
       <c r="AF180" t="s" s="2">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="AG180" t="s" s="2">
         <v>80</v>
@@ -23973,21 +23976,21 @@
         <v>82</v>
       </c>
       <c r="AM180" t="s" s="2">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="AN180" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO180" t="s" s="2">
-        <v>789</v>
+        <v>790</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s" s="2">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="B181" t="s" s="2">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="C181" s="2"/>
       <c r="D181" t="s" s="2">
@@ -24010,13 +24013,13 @@
         <v>82</v>
       </c>
       <c r="K181" t="s" s="2">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="L181" t="s" s="2">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="M181" t="s" s="2">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="N181" s="2"/>
       <c r="O181" s="2"/>
@@ -24067,7 +24070,7 @@
         <v>82</v>
       </c>
       <c r="AF181" t="s" s="2">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="AG181" t="s" s="2">
         <v>80</v>
@@ -24088,21 +24091,21 @@
         <v>82</v>
       </c>
       <c r="AM181" t="s" s="2">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="AN181" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO181" t="s" s="2">
-        <v>794</v>
+        <v>795</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s" s="2">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="B182" t="s" s="2">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="C182" s="2"/>
       <c r="D182" t="s" s="2">
@@ -24128,10 +24131,10 @@
         <v>227</v>
       </c>
       <c r="L182" t="s" s="2">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="M182" t="s" s="2">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="N182" s="2"/>
       <c r="O182" s="2"/>
@@ -24162,7 +24165,7 @@
       </c>
       <c r="Y182" s="2"/>
       <c r="Z182" t="s" s="2">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="AA182" t="s" s="2">
         <v>82</v>
@@ -24180,7 +24183,7 @@
         <v>82</v>
       </c>
       <c r="AF182" t="s" s="2">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="AG182" t="s" s="2">
         <v>80</v>
@@ -24201,21 +24204,21 @@
         <v>82</v>
       </c>
       <c r="AM182" t="s" s="2">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="AN182" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO182" t="s" s="2">
-        <v>800</v>
+        <v>801</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s" s="2">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="B183" t="s" s="2">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="C183" s="2"/>
       <c r="D183" t="s" s="2">
@@ -24238,16 +24241,16 @@
         <v>82</v>
       </c>
       <c r="K183" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="L183" t="s" s="2">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="M183" t="s" s="2">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="N183" t="s" s="2">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="O183" s="2"/>
       <c r="P183" t="s" s="2">
@@ -24297,7 +24300,7 @@
         <v>82</v>
       </c>
       <c r="AF183" t="s" s="2">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="AG183" t="s" s="2">
         <v>80</v>
@@ -24312,13 +24315,13 @@
         <v>103</v>
       </c>
       <c r="AK183" t="s" s="2">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="AL183" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM183" t="s" s="2">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="AN183" t="s" s="2">
         <v>82</v>
@@ -24329,10 +24332,10 @@
     </row>
     <row r="184">
       <c r="A184" t="s" s="2">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="B184" t="s" s="2">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="C184" s="2"/>
       <c r="D184" t="s" s="2">
@@ -24444,10 +24447,10 @@
     </row>
     <row r="185">
       <c r="A185" t="s" s="2">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="B185" t="s" s="2">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="C185" s="2"/>
       <c r="D185" t="s" s="2">
@@ -24561,14 +24564,14 @@
     </row>
     <row r="186">
       <c r="A186" t="s" s="2">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="B186" t="s" s="2">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="C186" s="2"/>
       <c r="D186" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="E186" s="2"/>
       <c r="F186" t="s" s="2">
@@ -24590,10 +24593,10 @@
         <v>112</v>
       </c>
       <c r="L186" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="M186" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="N186" t="s" s="2">
         <v>115</v>
@@ -24648,7 +24651,7 @@
         <v>82</v>
       </c>
       <c r="AF186" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AG186" t="s" s="2">
         <v>80</v>
@@ -24680,10 +24683,10 @@
     </row>
     <row r="187">
       <c r="A187" t="s" s="2">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="B187" t="s" s="2">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="C187" s="2"/>
       <c r="D187" t="s" s="2">
@@ -24706,13 +24709,13 @@
         <v>82</v>
       </c>
       <c r="K187" t="s" s="2">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="L187" t="s" s="2">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="M187" t="s" s="2">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="N187" s="2"/>
       <c r="O187" s="2"/>
@@ -24763,7 +24766,7 @@
         <v>82</v>
       </c>
       <c r="AF187" t="s" s="2">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="AG187" t="s" s="2">
         <v>91</v>
@@ -24781,24 +24784,24 @@
         <v>82</v>
       </c>
       <c r="AL187" t="s" s="2">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="AM187" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="AN187" t="s" s="2">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="AO187" t="s" s="2">
-        <v>816</v>
+        <v>817</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="s" s="2">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="B188" t="s" s="2">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="C188" s="2"/>
       <c r="D188" t="s" s="2">
@@ -24824,13 +24827,13 @@
         <v>168</v>
       </c>
       <c r="L188" t="s" s="2">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="M188" t="s" s="2">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="N188" t="s" s="2">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="O188" s="2"/>
       <c r="P188" t="s" s="2">
@@ -24859,10 +24862,10 @@
         <v>230</v>
       </c>
       <c r="Y188" t="s" s="2">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="Z188" t="s" s="2">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="AA188" t="s" s="2">
         <v>82</v>
@@ -24880,7 +24883,7 @@
         <v>82</v>
       </c>
       <c r="AF188" t="s" s="2">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="AG188" t="s" s="2">
         <v>80</v>
@@ -24901,7 +24904,7 @@
         <v>82</v>
       </c>
       <c r="AM188" t="s" s="2">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="AN188" t="s" s="2">
         <v>82</v>
@@ -24912,10 +24915,10 @@
     </row>
     <row r="189">
       <c r="A189" t="s" s="2">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="B189" t="s" s="2">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="C189" s="2"/>
       <c r="D189" t="s" s="2">
@@ -24941,13 +24944,13 @@
         <v>227</v>
       </c>
       <c r="L189" t="s" s="2">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="M189" t="s" s="2">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="N189" t="s" s="2">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="O189" s="2"/>
       <c r="P189" t="s" s="2">
@@ -24977,7 +24980,7 @@
       </c>
       <c r="Y189" s="2"/>
       <c r="Z189" t="s" s="2">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="AA189" t="s" s="2">
         <v>82</v>
@@ -24995,7 +24998,7 @@
         <v>82</v>
       </c>
       <c r="AF189" t="s" s="2">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="AG189" t="s" s="2">
         <v>80</v>
@@ -25027,10 +25030,10 @@
     </row>
     <row r="190">
       <c r="A190" t="s" s="2">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="B190" t="s" s="2">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="C190" s="2"/>
       <c r="D190" t="s" s="2">
@@ -25053,13 +25056,13 @@
         <v>82</v>
       </c>
       <c r="K190" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="L190" t="s" s="2">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="M190" t="s" s="2">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="N190" s="2"/>
       <c r="O190" s="2"/>
@@ -25110,7 +25113,7 @@
         <v>82</v>
       </c>
       <c r="AF190" t="s" s="2">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="AG190" t="s" s="2">
         <v>80</v>
@@ -25131,7 +25134,7 @@
         <v>82</v>
       </c>
       <c r="AM190" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="AN190" t="s" s="2">
         <v>82</v>
@@ -25142,10 +25145,10 @@
     </row>
     <row r="191">
       <c r="A191" t="s" s="2">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="B191" t="s" s="2">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="C191" s="2"/>
       <c r="D191" t="s" s="2">
@@ -25168,13 +25171,13 @@
         <v>82</v>
       </c>
       <c r="K191" t="s" s="2">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="L191" t="s" s="2">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="M191" t="s" s="2">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="N191" s="2"/>
       <c r="O191" s="2"/>
@@ -25225,7 +25228,7 @@
         <v>82</v>
       </c>
       <c r="AF191" t="s" s="2">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="AG191" t="s" s="2">
         <v>80</v>
@@ -25240,27 +25243,27 @@
         <v>103</v>
       </c>
       <c r="AK191" t="s" s="2">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="AL191" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="AM191" t="s" s="2">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="AN191" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO191" t="s" s="2">
-        <v>838</v>
+        <v>839</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="s" s="2">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="B192" t="s" s="2">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="C192" s="2"/>
       <c r="D192" t="s" s="2">
@@ -25283,16 +25286,16 @@
         <v>82</v>
       </c>
       <c r="K192" t="s" s="2">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="L192" t="s" s="2">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="M192" t="s" s="2">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="N192" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="O192" s="2"/>
       <c r="P192" t="s" s="2">
@@ -25342,7 +25345,7 @@
         <v>82</v>
       </c>
       <c r="AF192" t="s" s="2">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="AG192" t="s" s="2">
         <v>80</v>
@@ -25357,13 +25360,13 @@
         <v>103</v>
       </c>
       <c r="AK192" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="AL192" t="s" s="2">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="AM192" t="s" s="2">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="AN192" t="s" s="2">
         <v>82</v>

--- a/379-rc---gestion-des-identifiants-métiers/ig/StructureDefinition-tddui-encounter-evenement.xlsx
+++ b/379-rc---gestion-des-identifiants-métiers/ig/StructureDefinition-tddui-encounter-evenement.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-21T12:05:40+00:00</t>
+    <t>2025-10-22T08:03:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1062,7 +1062,7 @@
     <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
   </si>
   <si>
-    <t>https://identifiant-medicosocial-evenement.cnsa.fr</t>
+    <t>https://identifiant-medicosocial-evenement.esante.gouv.fr</t>
   </si>
   <si>
     <t>http://www.acme.com/identifiers/patient</t>

--- a/379-rc---gestion-des-identifiants-métiers/ig/StructureDefinition-tddui-encounter-evenement.xlsx
+++ b/379-rc---gestion-des-identifiants-métiers/ig/StructureDefinition-tddui-encounter-evenement.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-22T08:03:07+00:00</t>
+    <t>2025-10-22T10:16:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/379-rc---gestion-des-identifiants-métiers/ig/StructureDefinition-tddui-encounter-evenement.xlsx
+++ b/379-rc---gestion-des-identifiants-métiers/ig/StructureDefinition-tddui-encounter-evenement.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-22T10:16:49+00:00</t>
+    <t>2025-10-23T08:56:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
